--- a/dataConfigs/target/test-classes/excelData/ExcelData.xlsx
+++ b/dataConfigs/target/test-classes/excelData/ExcelData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -128,6 +128,66 @@
   </si>
   <si>
     <t>Hari</t>
+  </si>
+  <si>
+    <t>Date::2019-05-03</t>
+  </si>
+  <si>
+    <t>Date::2019-05-03 1556924884157</t>
+  </si>
+  <si>
+    <t>Date::2019-05-03T20:11:10.102 1556925070103</t>
+  </si>
+  <si>
+    <t>Date::2019-05-03T20:11:55.285</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-03T20:12:42.844</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-03T20:13:20.469</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-03T20:13:57.513</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-03T20:14:08.009</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-09T23:27:16.206</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-09T23:27:46.665</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-09T23:30:25.433</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-10T19:38:59.596</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-10T19:39:53.097</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-10T19:40:53.507</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:33:04.702</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:34:19.779</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:38:32.823</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:38:57.568</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:39:44.987</t>
+  </si>
+  <si>
+    <t>date &amp; time::2019-05-11T08:42:15.672</t>
   </si>
 </sst>
 </file>
@@ -493,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
